--- a/numbers_and_facts/Sample_size_per_variable_and_forest_biome_combination_with_age_and_management.xlsx
+++ b/numbers_and_facts/Sample_size_per_variable_and_forest_biome_combination_with_age_and_management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becky\Dropbox (Smithsonian)\GitHub\ForC\numbers_and_facts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63553C8D-654C-45FA-AE0A-51348E22841D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBAD6E6-D750-4602-94C9-8539FD3C9C3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <t>Koeppen_name</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Sum of NPP_5</t>
+  </si>
+  <si>
+    <t>Sum of BNPP_root</t>
   </si>
 </sst>
 </file>
@@ -4205,8 +4208,200 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:M22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:N7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="62">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item h="1" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+    <i i="12">
+      <x v="12"/>
+    </i>
+  </colItems>
+  <dataFields count="13">
+    <dataField name="Sum of ANPP_0" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ANPP_1" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ANPP_2" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ANPP_foliage" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ANPP_woody" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of GPP" fld="31" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_0" fld="39" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_1" fld="40" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_2" fld="41" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_3" fld="42" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_5" fld="44" baseField="0" baseItem="0"/>
+    <dataField name="Sum of NPP_4" fld="43" baseField="0" baseItem="0"/>
+    <dataField name="Sum of BNPP_root" fld="23" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:N22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="62">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -4266,7 +4461,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4355,7 +4550,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="12">
+  <colItems count="13">
     <i>
       <x/>
     </i>
@@ -4392,8 +4587,11 @@
     <i i="11">
       <x v="11"/>
     </i>
+    <i i="12">
+      <x v="12"/>
+    </i>
   </colItems>
-  <dataFields count="12">
+  <dataFields count="13">
     <dataField name="Sum of ANPP_0" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of ANPP_1" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of ANPP_2" fld="5" baseField="0" baseItem="0"/>
@@ -4406,194 +4604,7 @@
     <dataField name="Sum of NPP_3" fld="42" baseField="0" baseItem="0"/>
     <dataField name="Sum of NPP_5" fld="44" baseField="0" baseItem="0"/>
     <dataField name="Sum of NPP_4" fld="43" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="62">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item h="1" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
-    <i i="10">
-      <x v="10"/>
-    </i>
-    <i i="11">
-      <x v="11"/>
-    </i>
-  </colItems>
-  <dataFields count="12">
-    <dataField name="Sum of ANPP_0" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ANPP_1" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ANPP_2" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ANPP_foliage" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ANPP_woody" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of GPP" fld="31" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_0" fld="39" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_1" fld="40" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_2" fld="41" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_3" fld="42" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_5" fld="44" baseField="0" baseItem="0"/>
-    <dataField name="Sum of NPP_4" fld="43" baseField="0" baseItem="0"/>
+    <dataField name="Sum of BNPP_root" fld="23" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14464,23 +14475,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:M22"/>
+  <dimension ref="A3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -14520,8 +14534,11 @@
       <c r="M3" t="s">
         <v>86</v>
       </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -14561,8 +14578,11 @@
       <c r="M4" s="4">
         <v>0</v>
       </c>
+      <c r="N4" s="4">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -14602,8 +14622,11 @@
       <c r="M5" s="4">
         <v>8</v>
       </c>
+      <c r="N5" s="4">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -14643,8 +14666,11 @@
       <c r="M6" s="4">
         <v>2</v>
       </c>
+      <c r="N6" s="4">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -14684,8 +14710,11 @@
       <c r="M7" s="4">
         <v>10</v>
       </c>
+      <c r="N7" s="4">
+        <v>227</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -14725,8 +14754,11 @@
       <c r="M9" t="s">
         <v>86</v>
       </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -14766,8 +14798,11 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
+      <c r="N10" s="4">
+        <v>85</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
@@ -14807,8 +14842,11 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
+      <c r="N11" s="4">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -14848,8 +14886,11 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
+      <c r="N12" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
@@ -14889,8 +14930,11 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
+      <c r="N13" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -14930,8 +14974,11 @@
       <c r="M14" s="4">
         <v>8</v>
       </c>
+      <c r="N14" s="4">
+        <v>91</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -14971,8 +15018,11 @@
       <c r="M15" s="4">
         <v>8</v>
       </c>
+      <c r="N15" s="4">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -15012,8 +15062,11 @@
       <c r="M16" s="4">
         <v>0</v>
       </c>
+      <c r="N16" s="4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>68</v>
       </c>
@@ -15053,8 +15106,11 @@
       <c r="M17" s="4">
         <v>0</v>
       </c>
+      <c r="N17" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
@@ -15094,8 +15150,11 @@
       <c r="M18" s="4">
         <v>2</v>
       </c>
+      <c r="N18" s="4">
+        <v>39</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -15135,8 +15194,11 @@
       <c r="M19" s="4">
         <v>0</v>
       </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -15176,8 +15238,11 @@
       <c r="M20" s="4">
         <v>0</v>
       </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -15217,8 +15282,11 @@
       <c r="M21" s="4">
         <v>2</v>
       </c>
+      <c r="N21" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -15257,6 +15325,9 @@
       </c>
       <c r="M22" s="4">
         <v>10</v>
+      </c>
+      <c r="N22" s="4">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
